--- a/biology/Médecine/Rhinophyma/Rhinophyma.xlsx
+++ b/biology/Médecine/Rhinophyma/Rhinophyma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhinophyma est un terme générique décrivant un nez très large, bulbeux et sanguin.
 Cette affection est causée par une infiltration granulomateuse secondaire à une rosacée évoluée.
-Elle touche principalement les hommes de plus de cinquante ans et elle a longtemps  été  considérée à tort comme étant la conséquence d'une consommation excessive d'alcool[1], alors que d'autres facteurs de risques sont aujourd'hui identifiés, comme la prévalence familiale ou l'origine géographique (Irlande, Angleterre, Écosse, Scandinavie, Europe de l'Est)[2],[3].
+Elle touche principalement les hommes de plus de cinquante ans et elle a longtemps  été  considérée à tort comme étant la conséquence d'une consommation excessive d'alcool, alors que d'autres facteurs de risques sont aujourd'hui identifiés, comme la prévalence familiale ou l'origine géographique (Irlande, Angleterre, Écosse, Scandinavie, Europe de l'Est),.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il n'exite pas aujourd'hui de traitement médicamenteux du [rhinophyma], mais plusieurs techniques chirurgicales donnent de bons résultats, sans qu'aucune n'ait prouvé une efficacité supérieure aux autres. Il s'agit notamment de la chirurgie à la lame froid, de la cryochirurgie, de la radiofréquence ou du laser[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'exite pas aujourd'hui de traitement médicamenteux du [rhinophyma], mais plusieurs techniques chirurgicales donnent de bons résultats, sans qu'aucune n'ait prouvé une efficacité supérieure aux autres. Il s'agit notamment de la chirurgie à la lame froid, de la cryochirurgie, de la radiofréquence ou du laser.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Personnalités atteintes par la maladie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>John Pierpont Morgan (1837-1913)[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>John Pierpont Morgan (1837-1913).</t>
         </is>
       </c>
     </row>
@@ -574,7 +590,9 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Un tableau de Domenico Ghirlandaio (conservé au musée du Louvre) représente parfaitement un rhinophyma chez un vieillard.
 </t>
